--- a/results/mp/logistic/home-spam/confidence/42/stop-words-0.15/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/home-spam/confidence/42/stop-words-0.15/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="76">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,34 +46,37 @@
     <t>returned</t>
   </si>
   <si>
+    <t>stopped</t>
+  </si>
+  <si>
     <t>poor</t>
   </si>
   <si>
-    <t>stopped</t>
-  </si>
-  <si>
     <t>waste</t>
   </si>
   <si>
+    <t>useless</t>
+  </si>
+  <si>
+    <t>broke</t>
+  </si>
+  <si>
+    <t>filters</t>
+  </si>
+  <si>
     <t>junk</t>
   </si>
   <si>
-    <t>useless</t>
-  </si>
-  <si>
-    <t>broke</t>
-  </si>
-  <si>
     <t>difficult</t>
   </si>
   <si>
-    <t>filters</t>
+    <t>thin</t>
   </si>
   <si>
     <t>maybe</t>
   </si>
   <si>
-    <t>thin</t>
+    <t>not</t>
   </si>
   <si>
     <t>however</t>
@@ -91,40 +94,115 @@
     <t>disappointed</t>
   </si>
   <si>
+    <t>plastic</t>
+  </si>
+  <si>
+    <t>grind</t>
+  </si>
+  <si>
+    <t>broken</t>
+  </si>
+  <si>
+    <t>lid</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>filter</t>
   </si>
   <si>
-    <t>grind</t>
-  </si>
-  <si>
-    <t>plastic</t>
-  </si>
-  <si>
-    <t>broken</t>
-  </si>
-  <si>
-    <t>lid</t>
-  </si>
-  <si>
-    <t>1</t>
+    <t>after</t>
+  </si>
+  <si>
+    <t>received</t>
+  </si>
+  <si>
+    <t>off</t>
+  </si>
+  <si>
+    <t>worked</t>
+  </si>
+  <si>
+    <t>but</t>
   </si>
   <si>
     <t>back</t>
   </si>
   <si>
-    <t>worked</t>
+    <t>doesn</t>
+  </si>
+  <si>
+    <t>did</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>hard</t>
   </si>
   <si>
     <t>work</t>
   </si>
   <si>
-    <t>small</t>
+    <t>does</t>
+  </si>
+  <si>
+    <t>was</t>
+  </si>
+  <si>
+    <t>on</t>
+  </si>
+  <si>
+    <t>'</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>the</t>
   </si>
   <si>
     <t>would</t>
   </si>
   <si>
-    <t>product</t>
+    <t>that</t>
+  </si>
+  <si>
+    <t>it</t>
+  </si>
+  <si>
+    <t>in</t>
+  </si>
+  <si>
+    <t>of</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>is</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>this</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>for</t>
+  </si>
+  <si>
+    <t>and</t>
   </si>
   <si>
     <t>negative</t>
@@ -136,12 +214,12 @@
     <t>awesome</t>
   </si>
   <si>
+    <t>perfect</t>
+  </si>
+  <si>
     <t>loves</t>
   </si>
   <si>
-    <t>perfect</t>
-  </si>
-  <si>
     <t>love</t>
   </si>
   <si>
@@ -158,6 +236,9 @@
   </si>
   <si>
     <t>easy</t>
+  </si>
+  <si>
+    <t>!</t>
   </si>
   <si>
     <t>positive</t>
@@ -518,7 +599,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q31"/>
+  <dimension ref="A1:Q57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -526,10 +607,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="J1" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -587,13 +668,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9292035398230089</v>
+        <v>0.9557522123893806</v>
       </c>
       <c r="C3">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D3">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -605,19 +686,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="K3">
-        <v>0.84375</v>
+        <v>0.8125</v>
       </c>
       <c r="L3">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="M3">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -629,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -637,13 +718,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8686868686868687</v>
+        <v>0.9191919191919192</v>
       </c>
       <c r="C4">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D4">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -655,19 +736,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="K4">
-        <v>0.7608695652173914</v>
+        <v>0.7826086956521739</v>
       </c>
       <c r="L4">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M4">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -679,7 +760,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -687,13 +768,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.86</v>
+        <v>0.8867924528301887</v>
       </c>
       <c r="C5">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D5">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -705,19 +786,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="K5">
-        <v>0.7419354838709677</v>
+        <v>0.7050847457627119</v>
       </c>
       <c r="L5">
-        <v>69</v>
+        <v>208</v>
       </c>
       <c r="M5">
-        <v>69</v>
+        <v>208</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -729,7 +810,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>24</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -737,13 +818,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8490566037735849</v>
+        <v>0.86</v>
       </c>
       <c r="C6">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D6">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -755,19 +836,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="K6">
-        <v>0.7016949152542373</v>
+        <v>0.6881720430107527</v>
       </c>
       <c r="L6">
-        <v>207</v>
+        <v>64</v>
       </c>
       <c r="M6">
-        <v>207</v>
+        <v>64</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -779,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>88</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -787,13 +868,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.847457627118644</v>
+        <v>0.8559322033898306</v>
       </c>
       <c r="C7">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D7">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -805,19 +886,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="K7">
-        <v>0.5928792569659442</v>
+        <v>0.6099071207430341</v>
       </c>
       <c r="L7">
-        <v>383</v>
+        <v>394</v>
       </c>
       <c r="M7">
-        <v>383</v>
+        <v>394</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -829,7 +910,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>263</v>
+        <v>252</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -837,13 +918,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7884615384615384</v>
+        <v>0.825</v>
       </c>
       <c r="C8">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D8">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -855,19 +936,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="K8">
-        <v>0.5151515151515151</v>
+        <v>0.4978354978354979</v>
       </c>
       <c r="L8">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="M8">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -879,7 +960,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -887,13 +968,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.775</v>
+        <v>0.7891891891891892</v>
       </c>
       <c r="C9">
-        <v>31</v>
+        <v>146</v>
       </c>
       <c r="D9">
-        <v>31</v>
+        <v>146</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -905,19 +986,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="K9">
-        <v>0.4805194805194805</v>
+        <v>0.4935064935064935</v>
       </c>
       <c r="L9">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M9">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -929,7 +1010,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -937,13 +1018,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7513513513513513</v>
+        <v>0.7045454545454546</v>
       </c>
       <c r="C10">
-        <v>139</v>
+        <v>31</v>
       </c>
       <c r="D10">
-        <v>139</v>
+        <v>31</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -955,19 +1036,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="K10">
-        <v>0.2342857142857143</v>
+        <v>0.2228571428571429</v>
       </c>
       <c r="L10">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="M10">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -979,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -987,13 +1068,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7205882352941176</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="C11">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="D11">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1005,19 +1086,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="K11">
-        <v>0.1605136436597111</v>
+        <v>0.1685393258426966</v>
       </c>
       <c r="L11">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="M11">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1029,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>1046</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1037,13 +1118,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7045454545454546</v>
+        <v>0.6911764705882353</v>
       </c>
       <c r="C12">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="D12">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1055,19 +1136,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J12" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K12">
+        <v>0.06438356164383562</v>
+      </c>
+      <c r="L12">
         <v>47</v>
       </c>
-      <c r="K12">
-        <v>0.06986301369863014</v>
-      </c>
-      <c r="L12">
-        <v>51</v>
-      </c>
       <c r="M12">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1079,7 +1160,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>679</v>
+        <v>683</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1087,13 +1168,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.660377358490566</v>
+        <v>0.6712328767123288</v>
       </c>
       <c r="C13">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="D13">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1105,7 +1186,31 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>18</v>
+        <v>24</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K13">
+        <v>0.01880424300867888</v>
+      </c>
+      <c r="L13">
+        <v>39</v>
+      </c>
+      <c r="M13">
+        <v>42</v>
+      </c>
+      <c r="N13">
+        <v>0.93</v>
+      </c>
+      <c r="O13">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P13" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q13">
+        <v>2035</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1113,13 +1218,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6575342465753424</v>
+        <v>0.660377358490566</v>
       </c>
       <c r="C14">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="D14">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1131,7 +1236,7 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1139,13 +1244,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5641025641025641</v>
+        <v>0.6126984126984127</v>
       </c>
       <c r="C15">
-        <v>44</v>
+        <v>1158</v>
       </c>
       <c r="D15">
-        <v>44</v>
+        <v>1158</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1157,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>34</v>
+        <v>732</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1165,13 +1270,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5566037735849056</v>
+        <v>0.5512820512820513</v>
       </c>
       <c r="C16">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="D16">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1183,7 +1288,7 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>47</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1191,13 +1296,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5555555555555556</v>
+        <v>0.5377358490566038</v>
       </c>
       <c r="C17">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="D17">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1209,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1217,13 +1322,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5333333333333333</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="C18">
-        <v>104</v>
+        <v>70</v>
       </c>
       <c r="D18">
-        <v>104</v>
+        <v>70</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1235,7 +1340,7 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>91</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1243,13 +1348,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.4883720930232558</v>
+        <v>0.5128205128205128</v>
       </c>
       <c r="C19">
-        <v>63</v>
+        <v>100</v>
       </c>
       <c r="D19">
-        <v>63</v>
+        <v>100</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1261,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>66</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1269,13 +1374,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4482758620689655</v>
+        <v>0.4651162790697674</v>
       </c>
       <c r="C20">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="D20">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1287,7 +1392,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>48</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1295,13 +1400,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.4225352112676056</v>
+        <v>0.4459459459459459</v>
       </c>
       <c r="C21">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="D21">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1313,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>41</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1321,13 +1426,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.4189189189189189</v>
+        <v>0.4366197183098591</v>
       </c>
       <c r="C22">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="D22">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1339,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>86</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1347,13 +1452,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.4111111111111111</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="C23">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D23">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1365,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1373,13 +1478,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.4070796460176991</v>
+        <v>0.415929203539823</v>
       </c>
       <c r="C24">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D24">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1391,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1399,13 +1504,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.2912621359223301</v>
+        <v>0.3786407766990291</v>
       </c>
       <c r="C25">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="D25">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1417,7 +1522,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1425,13 +1530,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.2756410256410257</v>
+        <v>0.367816091954023</v>
       </c>
       <c r="C26">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="D26">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1443,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>113</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1451,13 +1556,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.2737430167597765</v>
+        <v>0.3405405405405406</v>
       </c>
       <c r="C27">
-        <v>49</v>
+        <v>126</v>
       </c>
       <c r="D27">
-        <v>49</v>
+        <v>126</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1469,7 +1574,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>130</v>
+        <v>244</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1477,13 +1582,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.1401617250673854</v>
+        <v>0.3365384615384616</v>
       </c>
       <c r="C28">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="D28">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1495,7 +1600,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>319</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1503,13 +1608,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.09863945578231292</v>
+        <v>0.2602230483271376</v>
       </c>
       <c r="C29">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="D29">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1521,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>265</v>
+        <v>199</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1529,13 +1634,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.05714285714285714</v>
+        <v>0.2569832402234637</v>
       </c>
       <c r="C30">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D30">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1547,7 +1652,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>693</v>
+        <v>133</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1555,25 +1660,701 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.05215123859191656</v>
+        <v>0.2522522522522522</v>
       </c>
       <c r="C31">
+        <v>364</v>
+      </c>
+      <c r="D31">
+        <v>364</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31" t="b">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32">
+        <v>0.25</v>
+      </c>
+      <c r="C32">
+        <v>39</v>
+      </c>
+      <c r="D32">
+        <v>39</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32" t="b">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33">
+        <v>0.24</v>
+      </c>
+      <c r="C33">
+        <v>54</v>
+      </c>
+      <c r="D33">
+        <v>54</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33" t="b">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34">
+        <v>0.1923076923076923</v>
+      </c>
+      <c r="C34">
+        <v>50</v>
+      </c>
+      <c r="D34">
+        <v>50</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34" t="b">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D31">
+      <c r="B35">
+        <v>0.1431111111111111</v>
+      </c>
+      <c r="C35">
+        <v>161</v>
+      </c>
+      <c r="D35">
+        <v>161</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35" t="b">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36">
+        <v>0.1380952380952381</v>
+      </c>
+      <c r="C36">
+        <v>29</v>
+      </c>
+      <c r="D36">
+        <v>29</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36" t="b">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37">
+        <v>0.1320754716981132</v>
+      </c>
+      <c r="C37">
+        <v>49</v>
+      </c>
+      <c r="D37">
+        <v>49</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37" t="b">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38">
+        <v>0.06716417910447761</v>
+      </c>
+      <c r="C38">
+        <v>36</v>
+      </c>
+      <c r="D38">
+        <v>36</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38" t="b">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39">
+        <v>0.06109822119102862</v>
+      </c>
+      <c r="C39">
+        <v>79</v>
+      </c>
+      <c r="D39">
+        <v>79</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39" t="b">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40">
+        <v>0.05845511482254697</v>
+      </c>
+      <c r="C40">
+        <v>56</v>
+      </c>
+      <c r="D40">
+        <v>56</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40" t="b">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41">
+        <v>0.04678111587982833</v>
+      </c>
+      <c r="C41">
+        <v>109</v>
+      </c>
+      <c r="D41">
+        <v>111</v>
+      </c>
+      <c r="E41">
+        <v>0.02</v>
+      </c>
+      <c r="F41">
+        <v>0.98</v>
+      </c>
+      <c r="G41" t="b">
+        <v>1</v>
+      </c>
+      <c r="H41">
+        <v>2221</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42">
+        <v>0.04563233376792699</v>
+      </c>
+      <c r="C42">
+        <v>35</v>
+      </c>
+      <c r="D42">
+        <v>35</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42" t="b">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43">
+        <v>0.04393647023897877</v>
+      </c>
+      <c r="C43">
+        <v>296</v>
+      </c>
+      <c r="D43">
+        <v>304</v>
+      </c>
+      <c r="E43">
+        <v>0.03</v>
+      </c>
+      <c r="F43">
+        <v>0.97</v>
+      </c>
+      <c r="G43" t="b">
+        <v>1</v>
+      </c>
+      <c r="H43">
+        <v>6441</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44">
+        <v>0.04353741496598639</v>
+      </c>
+      <c r="C44">
+        <v>32</v>
+      </c>
+      <c r="D44">
+        <v>32</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44" t="b">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45">
+        <v>0.04124860646599777</v>
+      </c>
+      <c r="C45">
+        <v>37</v>
+      </c>
+      <c r="D45">
+        <v>38</v>
+      </c>
+      <c r="E45">
+        <v>0.03</v>
+      </c>
+      <c r="F45">
+        <v>0.97</v>
+      </c>
+      <c r="G45" t="b">
+        <v>1</v>
+      </c>
+      <c r="H45">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46">
+        <v>0.03533515316954807</v>
+      </c>
+      <c r="C46">
+        <v>233</v>
+      </c>
+      <c r="D46">
+        <v>239</v>
+      </c>
+      <c r="E46">
+        <v>0.03</v>
+      </c>
+      <c r="F46">
+        <v>0.97</v>
+      </c>
+      <c r="G46" t="b">
+        <v>1</v>
+      </c>
+      <c r="H46">
+        <v>6361</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B47">
+        <v>0.03448275862068965</v>
+      </c>
+      <c r="C47">
+        <v>49</v>
+      </c>
+      <c r="D47">
+        <v>50</v>
+      </c>
+      <c r="E47">
+        <v>0.02</v>
+      </c>
+      <c r="F47">
+        <v>0.98</v>
+      </c>
+      <c r="G47" t="b">
+        <v>1</v>
+      </c>
+      <c r="H47">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B48">
+        <v>0.03137478608100399</v>
+      </c>
+      <c r="C48">
+        <v>55</v>
+      </c>
+      <c r="D48">
+        <v>57</v>
+      </c>
+      <c r="E48">
+        <v>0.04</v>
+      </c>
+      <c r="F48">
+        <v>0.96</v>
+      </c>
+      <c r="G48" t="b">
+        <v>1</v>
+      </c>
+      <c r="H48">
+        <v>1698</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B49">
+        <v>0.02917962209997608</v>
+      </c>
+      <c r="C49">
+        <v>122</v>
+      </c>
+      <c r="D49">
+        <v>124</v>
+      </c>
+      <c r="E49">
+        <v>0.02</v>
+      </c>
+      <c r="F49">
+        <v>0.98</v>
+      </c>
+      <c r="G49" t="b">
+        <v>1</v>
+      </c>
+      <c r="H49">
+        <v>4059</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B50">
+        <v>0.02863478596220594</v>
+      </c>
+      <c r="C50">
+        <v>297</v>
+      </c>
+      <c r="D50">
+        <v>307</v>
+      </c>
+      <c r="E50">
+        <v>0.03</v>
+      </c>
+      <c r="F50">
+        <v>0.97</v>
+      </c>
+      <c r="G50" t="b">
+        <v>1</v>
+      </c>
+      <c r="H50">
+        <v>10075</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B51">
+        <v>0.02147340601255368</v>
+      </c>
+      <c r="C51">
+        <v>65</v>
+      </c>
+      <c r="D51">
+        <v>68</v>
+      </c>
+      <c r="E51">
+        <v>0.04</v>
+      </c>
+      <c r="F51">
+        <v>0.96</v>
+      </c>
+      <c r="G51" t="b">
+        <v>1</v>
+      </c>
+      <c r="H51">
+        <v>2962</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B52">
+        <v>0.01905742982230235</v>
+      </c>
+      <c r="C52">
+        <v>74</v>
+      </c>
+      <c r="D52">
+        <v>78</v>
+      </c>
+      <c r="E52">
+        <v>0.05</v>
+      </c>
+      <c r="F52">
+        <v>0.95</v>
+      </c>
+      <c r="G52" t="b">
+        <v>1</v>
+      </c>
+      <c r="H52">
+        <v>3809</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B53">
+        <v>0.01678719008264463</v>
+      </c>
+      <c r="C53">
+        <v>65</v>
+      </c>
+      <c r="D53">
+        <v>71</v>
+      </c>
+      <c r="E53">
+        <v>0.08</v>
+      </c>
+      <c r="F53">
+        <v>0.92</v>
+      </c>
+      <c r="G53" t="b">
+        <v>1</v>
+      </c>
+      <c r="H53">
+        <v>3807</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B54">
+        <v>0.01511811023622047</v>
+      </c>
+      <c r="C54">
+        <v>48</v>
+      </c>
+      <c r="D54">
+        <v>58</v>
+      </c>
+      <c r="E54">
+        <v>0.17</v>
+      </c>
+      <c r="F54">
+        <v>0.83</v>
+      </c>
+      <c r="G54" t="b">
+        <v>1</v>
+      </c>
+      <c r="H54">
+        <v>3127</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B55">
+        <v>0.01460120459937945</v>
+      </c>
+      <c r="C55">
+        <v>80</v>
+      </c>
+      <c r="D55">
+        <v>90</v>
+      </c>
+      <c r="E55">
+        <v>0.11</v>
+      </c>
+      <c r="F55">
+        <v>0.89</v>
+      </c>
+      <c r="G55" t="b">
+        <v>1</v>
+      </c>
+      <c r="H55">
+        <v>5399</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B56">
+        <v>0.01062660315133749</v>
+      </c>
+      <c r="C56">
+        <v>29</v>
+      </c>
+      <c r="D56">
+        <v>30</v>
+      </c>
+      <c r="E56">
+        <v>0.03</v>
+      </c>
+      <c r="F56">
+        <v>0.97</v>
+      </c>
+      <c r="G56" t="b">
+        <v>1</v>
+      </c>
+      <c r="H56">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B57">
+        <v>0.006702103073723134</v>
+      </c>
+      <c r="C57">
+        <v>29</v>
+      </c>
+      <c r="D57">
         <v>40</v>
       </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <v>727</v>
+      <c r="E57">
+        <v>0.28</v>
+      </c>
+      <c r="F57">
+        <v>0.72</v>
+      </c>
+      <c r="G57" t="b">
+        <v>1</v>
+      </c>
+      <c r="H57">
+        <v>4298</v>
       </c>
     </row>
   </sheetData>
